--- a/tests/TestUtils/TestFiles/TestWorkbook_FsSpreadsheet.net.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FsSpreadsheet.net.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable" sheetId="1" r:id="R0cf550093bff46be"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tableless" sheetId="2" r:id="Re431cdb3983c4a03"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable_Duplicate" sheetId="3" r:id="R517355d448a14079"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable" sheetId="1" r:id="Red9c9bdfb4c84aea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tableless" sheetId="2" r:id="R5b2be78613964d38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable_Duplicate" sheetId="3" r:id="R1d4668bd6af34253"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -106,7 +106,7 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D2" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" t="str">
         <x:v>(A) This is part 1 of 2</x:v>
@@ -126,7 +126,7 @@
         <x:v>45214.75</x:v>
       </x:c>
       <x:c r="D3" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" t="str">
         <x:v>Tests if column names with whitespace at end can be unique</x:v>
@@ -143,12 +143,12 @@
         <x:v>45215.833333333336</x:v>
       </x:c>
       <x:c r="D4" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" t="n">
-        <x:v>4</x:v>
+        <x:v>4.269</x:v>
       </x:c>
       <x:c r="B5" t="str">
         <x:v>Outer Space</x:v>
@@ -157,7 +157,7 @@
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D5" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -201,7 +201,7 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D2" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" t="str">
         <x:v>(A) This is part 1 of 2</x:v>
@@ -221,7 +221,7 @@
         <x:v>45214.75</x:v>
       </x:c>
       <x:c r="D3" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" t="str">
         <x:v>Tests if column names with whitespace at end can be unique</x:v>
@@ -238,12 +238,12 @@
         <x:v>45215.833333333336</x:v>
       </x:c>
       <x:c r="D4" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" t="n">
-        <x:v>4</x:v>
+        <x:v>4.269</x:v>
       </x:c>
       <x:c r="B5" t="str">
         <x:v>Outer Space</x:v>
@@ -252,7 +252,7 @@
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D5" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -293,7 +293,7 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="E5" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F5" t="str">
         <x:v>(A) This is part 1 of 2</x:v>
@@ -313,7 +313,7 @@
         <x:v>45214.75</x:v>
       </x:c>
       <x:c r="E6" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" t="str">
         <x:v>Tests if column names with whitespace at end can be unique</x:v>
@@ -330,12 +330,12 @@
         <x:v>45215.833333333336</x:v>
       </x:c>
       <x:c r="E7" t="b">
-        <x:v>True</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" t="n">
-        <x:v>4</x:v>
+        <x:v>4.269</x:v>
       </x:c>
       <x:c r="C8" t="str">
         <x:v>Outer Space</x:v>
@@ -344,7 +344,7 @@
         <x:v>45216</x:v>
       </x:c>
       <x:c r="E8" t="b">
-        <x:v>False</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FsSpreadsheet.net.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FsSpreadsheet.net.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable" sheetId="1" r:id="Red9c9bdfb4c84aea"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tableless" sheetId="2" r:id="R5b2be78613964d38"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable_Duplicate" sheetId="3" r:id="R1d4668bd6af34253"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable" sheetId="1" r:id="Rd82b6a8d2f8542a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tableless" sheetId="2" r:id="Reb1113ba7d6f4b27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WithTable_Duplicate" sheetId="3" r:id="R173ca83579774c51"/>
   </x:sheets>
 </x:workbook>
 </file>
